--- a/MPC+FF/parafoil_parameters_kawaguchi.xlsx
+++ b/MPC+FF/parafoil_parameters_kawaguchi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta\MATLAB Drive\小笠原研_空中回収\経路計画用モデル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A022641B-AF5B-416D-BD83-16854FCA4654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852346EB-C16E-4BC1-9A77-2A94436DDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft_Model" sheetId="1" r:id="rId1"/>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2B8125-88ED-420F-BB77-91E0D1F2F541}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1719,7 +1719,7 @@
         <v>76</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -1835,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD722D-E07E-49D4-A68D-C3C851B35220}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
